--- a/_hunspell/de-DE/PreCheck_de-DE.xlsx
+++ b/_hunspell/de-DE/PreCheck_de-DE.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte_P4\Specials\whisper\whisper-datev\_hunspell\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254405ED-1B9D-4F70-A4F1-4788C9546FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="12255" yWindow="1695" windowWidth="25170" windowHeight="14985" xr2:uid="{BE04963C-A070-4480-BFF3-B339AE958130}"/>
+    <workbookView xWindow="12255" yWindow="1695" windowWidth="25170" windowHeight="14985"/>
   </bookViews>
   <sheets>
     <sheet name="Abkürzungen" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
     <sheet name="sonstiges" sheetId="5" r:id="rId5"/>
     <sheet name="multiple" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="796">
   <si>
     <t>Anmerkung</t>
   </si>
@@ -2587,11 +2581,20 @@
   <si>
     <t>Vertrag über die Arbeitsweise der Europäischen Union</t>
   </si>
+  <si>
+    <t>"LTE"</t>
+  </si>
+  <si>
+    <t>Long Term Evolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausbildungsförderwerk Garten-, Landschafts- und Sportplatzbau e. V. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2727,10 +2730,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="head" xfId="1" xr:uid="{24C198D7-7893-4E6F-8078-051F2CE32001}"/>
+    <cellStyle name="head" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="normal 2" xfId="2" xr:uid="{45AAB527-C4A1-4528-988D-134CE413760B}"/>
-    <cellStyle name="section" xfId="3" xr:uid="{9635DECE-919A-46DA-9E3D-C3BC77380AC7}"/>
+    <cellStyle name="normal 2" xfId="2"/>
+    <cellStyle name="section" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3034,19 +3037,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E251AED1-E3C5-4FF6-AEF0-3A21D6F1901F}">
-  <dimension ref="A1:B258"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3141,58 +3144,58 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>736</v>
+        <v>795</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>735</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>99</v>
+        <v>736</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>147</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>224</v>
+        <v>144</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3205,529 +3208,529 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>250</v>
+        <v>105</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>251</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>789</v>
+        <v>298</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>790</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>733</v>
+        <v>789</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>734</v>
+        <v>790</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>146</v>
+        <v>733</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>147</v>
+        <v>734</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>283</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>704</v>
+        <v>282</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>703</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>279</v>
+        <v>704</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>278</v>
+        <v>703</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>750</v>
+        <v>279</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>751</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>301</v>
+        <v>751</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>787</v>
+        <v>302</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>788</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>304</v>
+        <v>787</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>305</v>
+        <v>788</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>228</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>773</v>
+        <v>227</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>774</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>229</v>
+        <v>773</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>310</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>231</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>311</v>
+        <v>230</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>312</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>208</v>
+        <v>311</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>314</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>405</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>404</v>
+        <v>315</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>316</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>317</v>
+        <v>404</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>232</v>
+        <v>317</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>319</v>
+        <v>232</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>149</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>441</v>
+        <v>148</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>442</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>785</v>
+        <v>427</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>786</v>
+        <v>428</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>212</v>
+        <v>785</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>213</v>
+        <v>786</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>757</v>
+        <v>107</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>758</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>157</v>
+        <v>757</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>158</v>
+        <v>758</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>492</v>
+        <v>157</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>493</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>372</v>
+        <v>492</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>128</v>
+        <v>371</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>782</v>
+        <v>127</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>781</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>129</v>
+        <v>782</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>130</v>
+        <v>781</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>401</v>
+        <v>129</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>402</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>325</v>
+        <v>401</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>326</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>779</v>
+        <v>325</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>780</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>109</v>
+        <v>779</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>110</v>
+        <v>780</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>323</v>
+        <v>109</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>324</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>433</v>
+        <v>327</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>434</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>484</v>
+        <v>433</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>485</v>
+        <v>434</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>531</v>
+        <v>484</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>532</v>
+        <v>485</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>150</v>
+        <v>531</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>151</v>
+        <v>532</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>437</v>
+        <v>111</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>436</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>329</v>
+        <v>437</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>330</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>117</v>
+        <v>329</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>113</v>
+        <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>476</v>
+        <v>120</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>537</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>331</v>
+        <v>476</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>333</v>
+        <v>537</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>153</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3740,151 +3743,151 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>406</v>
+        <v>152</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>407</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>783</v>
+        <v>406</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>784</v>
+        <v>407</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>257</v>
+        <v>783</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>132</v>
+        <v>256</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>759</v>
+        <v>131</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>760</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>488</v>
+        <v>759</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>489</v>
+        <v>760</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>339</v>
+        <v>490</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>340</v>
+        <v>491</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>376</v>
+        <v>339</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>745</v>
+        <v>375</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>744</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>122</v>
+        <v>745</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>341</v>
+        <v>121</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>342</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>528</v>
+        <v>341</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>529</v>
+        <v>342</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>777</v>
+        <v>477</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>778</v>
+        <v>478</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>438</v>
+        <v>777</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>514</v>
+        <v>778</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>515</v>
+        <v>438</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>154</v>
+        <v>515</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>155</v>
+        <v>516</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>155</v>
@@ -3892,1055 +3895,1071 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>521</v>
+        <v>133</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>522</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>480</v>
+        <v>521</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>162</v>
+        <v>479</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>259</v>
+        <v>161</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>440</v>
+        <v>233</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>388</v>
+        <v>439</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>395</v>
+        <v>386</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>261</v>
+        <v>394</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>533</v>
+        <v>260</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>534</v>
+        <v>261</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>344</v>
+        <v>533</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B120" s="4" t="s">
         <v>430</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B122" s="4" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>387</v>
+        <v>345</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>136</v>
+        <v>385</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B127" s="4" t="s">
         <v>512</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B129" s="4" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B130" s="4" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>201</v>
+        <v>408</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>396</v>
+        <v>216</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>347</v>
+        <v>201</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>536</v>
+        <v>347</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>397</v>
+        <v>535</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>349</v>
+        <v>202</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>217</v>
+        <v>349</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>218</v>
+        <v>350</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>713</v>
+        <v>793</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>714</v>
+        <v>794</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>466</v>
+        <v>217</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>467</v>
+        <v>218</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>431</v>
+        <v>713</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>432</v>
+        <v>714</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>193</v>
+        <v>466</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>194</v>
+        <v>467</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>243</v>
+        <v>431</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>244</v>
+        <v>432</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>510</v>
+        <v>193</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>511</v>
+        <v>194</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>352</v>
+        <v>243</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>207</v>
+        <v>510</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>188</v>
+        <v>351</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>460</v>
+        <v>187</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>461</v>
+        <v>188</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="s">
-        <v>549</v>
+      <c r="A148" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>548</v>
+        <v>242</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>165</v>
+        <v>460</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>166</v>
+        <v>461</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>353</v>
+      <c r="A150" s="8" t="s">
+        <v>549</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>354</v>
+        <v>548</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B154" s="4" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B155" s="4" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B156" s="4" t="s">
         <v>400</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>195</v>
+        <v>383</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>196</v>
+        <v>384</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>238</v>
+        <v>369</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="s">
-        <v>524</v>
+      <c r="A159" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>526</v>
+        <v>196</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>357</v>
+      <c r="A161" s="8" t="s">
+        <v>524</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>358</v>
+        <v>526</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>101</v>
+        <v>234</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>142</v>
+        <v>357</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>143</v>
+        <v>358</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>262</v>
+        <v>100</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>263</v>
+        <v>101</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>390</v>
+        <v>142</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>410</v>
+        <v>262</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>139</v>
+        <v>389</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>222</v>
+        <v>409</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>424</v>
+        <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>425</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>141</v>
+        <v>222</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>356</v>
+        <v>424</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B174" s="6" t="s">
         <v>382</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B177" s="4" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B180" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="5" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B182" s="4" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>124</v>
+        <v>403</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>393</v>
+        <v>248</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B185" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>458</v>
+        <v>392</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>459</v>
+        <v>393</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>73</v>
+      <c r="A188" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>568</v>
+        <v>458</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>569</v>
+        <v>73</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>412</v>
+        <v>569</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B195" s="6" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="8" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B196" s="4" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="8" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B197" s="4" t="s">
         <v>572</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>126</v>
+        <v>264</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>287</v>
+        <v>367</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>413</v>
+        <v>125</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>414</v>
+        <v>126</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B203" s="6" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+    <row r="204" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B204" s="6" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B207" s="6" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
+    <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B208" s="4" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B208" s="6" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B211" s="6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="5"/>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>726</v>
-      </c>
-    </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>724</v>
-      </c>
+      <c r="A212" s="5"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="B215" s="6" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="5"/>
-    </row>
-    <row r="215" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A215" s="10"/>
-      <c r="B215" s="3"/>
-    </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>308</v>
-      </c>
+      <c r="A216" s="5"/>
+    </row>
+    <row r="217" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A217" s="10"/>
+      <c r="B217" s="3"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="A218" s="1"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>426</v>
+        <v>170</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>171</v>
+        <v>426</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>247</v>
+        <v>70</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B229" s="4" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="5"/>
-    </row>
-    <row r="229" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A229" s="10"/>
-      <c r="B229" s="3"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="5"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="5" t="s">
-        <v>200</v>
-      </c>
+    <row r="231" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A231" s="10"/>
+      <c r="B231" s="3"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="5"/>
     </row>
-    <row r="233" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A233" s="10"/>
-      <c r="B233" s="3" t="s">
-        <v>630</v>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="5" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="5"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="5" t="s">
-        <v>617</v>
+    <row r="235" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A235" s="10"/>
+      <c r="B235" s="3" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="5" t="s">
-        <v>621</v>
-      </c>
+      <c r="A236" s="5"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>755</v>
+        <v>620</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>627</v>
+        <v>755</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>591</v>
+        <v>627</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>629</v>
+        <v>591</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>588</v>
+        <v>624</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>762</v>
+        <v>618</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>587</v>
+        <v>762</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>719</v>
+        <v>587</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>718</v>
+        <v>625</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="5" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="B259" s="4" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="9"/>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:B209">
+  <sortState ref="A5:B209">
     <sortCondition ref="A3:A209"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4949,7 +4968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC230B24-3AAA-4E78-A20D-6E81BC6658A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5240,7 +5259,7 @@
       <c r="A37" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B32">
+  <sortState ref="A3:B32">
     <sortCondition ref="B3:B32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5249,7 +5268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4FA11F-7142-41C8-B8BC-F9D549E885B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5667,7 +5686,7 @@
       <c r="A82" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:B65">
+  <sortState ref="A49:B65">
     <sortCondition ref="A49:A65"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5676,7 +5695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A3222A-C015-43C5-B637-5BB8A18BEDA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6494,7 +6513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767239D1-D257-4F44-9E7A-A23639FC7880}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6687,7 +6706,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B17">
+  <sortState ref="A3:B17">
     <sortCondition ref="A3:A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6696,7 +6715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C93D320-B78B-4C26-9D70-09A0B165AD21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6892,7 +6911,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A30:B35">
+  <sortState ref="A30:B35">
     <sortCondition ref="A30:A35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_hunspell/de-DE/PreCheck_de-DE.xlsx
+++ b/_hunspell/de-DE/PreCheck_de-DE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="12255" yWindow="1695" windowWidth="25170" windowHeight="14985"/>
+    <workbookView xWindow="12255" yWindow="1695" windowWidth="25170" windowHeight="14985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Abkürzungen" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="796">
   <si>
     <t>Anmerkung</t>
   </si>
@@ -3037,7 +3037,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3047,7 +3047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
@@ -4969,11 +4969,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5025,238 +5025,230 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>635</v>
+        <v>707</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>660</v>
+        <v>708</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>707</v>
+        <v>636</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>708</v>
+        <v>661</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>655</v>
+        <v>709</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>666</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>709</v>
+        <v>646</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>710</v>
+        <v>663</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>663</v>
+        <v>685</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>685</v>
+        <v>648</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>643</v>
+        <v>763</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>676</v>
+        <v>764</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>763</v>
+        <v>651</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>764</v>
+        <v>667</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>644</v>
+        <v>711</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>664</v>
+        <v>712</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>711</v>
+        <v>748</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>712</v>
+        <v>749</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>749</v>
-      </c>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A36" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A3:B32">

--- a/_hunspell/de-DE/PreCheck_de-DE.xlsx
+++ b/_hunspell/de-DE/PreCheck_de-DE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="12255" yWindow="1695" windowWidth="25170" windowHeight="14985" activeTab="1"/>
+    <workbookView xWindow="12255" yWindow="1695" windowWidth="25170" windowHeight="14985"/>
   </bookViews>
   <sheets>
     <sheet name="Abkürzungen" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="798">
   <si>
     <t>Anmerkung</t>
   </si>
@@ -836,9 +836,6 @@
     <t>Confederación Sindical de Comisiones Obreras</t>
   </si>
   <si>
-    <t>"CO2"</t>
-  </si>
-  <si>
     <t>"DALY"</t>
   </si>
   <si>
@@ -2589,6 +2586,15 @@
   </si>
   <si>
     <t xml:space="preserve">Ausbildungsförderwerk Garten-, Landschafts- und Sportplatzbau e. V. </t>
+  </si>
+  <si>
+    <t>"OSS"</t>
+  </si>
+  <si>
+    <t>One-Stop-Shop</t>
+  </si>
+  <si>
+    <t>"CO₂"</t>
   </si>
 </sst>
 </file>
@@ -3045,11 +3051,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B260"/>
+  <dimension ref="A1:B261"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3072,18 +3078,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>791</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3096,18 +3102,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3115,47 +3121,47 @@
         <v>223</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>735</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3176,10 +3182,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3224,34 +3230,34 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>789</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>733</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3272,74 +3278,74 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>750</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>787</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3352,39 +3358,39 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>773</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>229</v>
+        <v>797</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3399,50 +3405,50 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3455,26 +3461,26 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>785</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3503,10 +3509,10 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>757</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3519,18 +3525,18 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3543,10 +3549,10 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -3559,26 +3565,26 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>779</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -3591,42 +3597,42 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>531</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -3647,18 +3653,18 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3695,42 +3701,42 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3751,26 +3757,26 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>783</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -3783,50 +3789,50 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>759</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>488</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>375</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3839,50 +3845,50 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>477</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>777</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3911,18 +3917,18 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>479</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3935,74 +3941,74 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -4023,18 +4029,18 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -4055,10 +4061,10 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -4071,10 +4077,10 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>716</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -4087,7 +4093,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>216</v>
@@ -4098,23 +4104,23 @@
         <v>201</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>535</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -4122,23 +4128,23 @@
         <v>202</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>793</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -4151,26 +4157,26 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>713</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>431</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -4183,26 +4189,26 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>510</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -4220,26 +4226,26 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -4252,694 +4258,697 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>163</v>
+        <v>795</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>164</v>
+        <v>796</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>468</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="B157" s="4" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>370</v>
+        <v>382</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>196</v>
+        <v>368</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B161" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B160" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>526</v>
-      </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>236</v>
+      <c r="A162" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>358</v>
+        <v>233</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>101</v>
+        <v>357</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>262</v>
+        <v>142</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>263</v>
+        <v>143</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>390</v>
+        <v>261</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>139</v>
+        <v>408</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>222</v>
+        <v>139</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>424</v>
+        <v>221</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>425</v>
+        <v>222</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>140</v>
+        <v>423</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>141</v>
+        <v>424</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>356</v>
+        <v>140</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B175" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B174" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+    </row>
+    <row r="176" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B176" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B175" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="5" t="s">
+    </row>
+    <row r="177" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B176" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+    </row>
+    <row r="178" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B181" s="4" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B183" s="4" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>249</v>
+        <v>402</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>123</v>
+        <v>247</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>124</v>
+        <v>248</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>393</v>
+        <v>123</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="B187" s="6" t="s">
-        <v>393</v>
-      </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="5" t="s">
+      <c r="A188" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B188" s="4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>459</v>
+      <c r="B189" s="4" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>411</v>
+        <v>457</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>568</v>
+        <v>73</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>412</v>
+        <v>569</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B196" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="B198" s="4" t="s">
         <v>571</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>367</v>
+        <v>263</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>368</v>
+        <v>264</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>126</v>
+        <v>366</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>286</v>
+        <v>125</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>287</v>
+        <v>126</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>413</v>
+        <v>285</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>414</v>
+        <v>286</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B204" s="6" t="s">
         <v>421</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B206" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="B205" s="6" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B207" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B206" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
+    </row>
+    <row r="208" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B208" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="B207" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
+    </row>
+    <row r="209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>364</v>
+        <v>378</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B212" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B211" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="5"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>726</v>
-      </c>
+      <c r="A213" s="5"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>724</v>
+        <v>720</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="B215" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="B215" s="6" t="s">
-        <v>725</v>
-      </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="5"/>
-    </row>
-    <row r="217" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="10"/>
-      <c r="B217" s="3"/>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
+      <c r="A216" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="5"/>
+    </row>
+    <row r="218" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A218" s="10"/>
+      <c r="B218" s="3"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>308</v>
-      </c>
+      <c r="A219" s="1"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>170</v>
+        <v>307</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>322</v>
+        <v>170</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>426</v>
+        <v>321</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>245</v>
+        <v>425</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>246</v>
+        <v>171</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>70</v>
+        <v>245</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>247</v>
+        <v>71</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B230" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="B229" s="4" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="5"/>
-    </row>
-    <row r="231" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A231" s="10"/>
-      <c r="B231" s="3"/>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="5"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="5"/>
+    </row>
+    <row r="232" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A232" s="10"/>
+      <c r="B232" s="3"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="5" t="s">
+      <c r="A233" s="5"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="5"/>
-    </row>
-    <row r="235" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A235" s="10"/>
-      <c r="B235" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="5"/>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="5"/>
+    </row>
+    <row r="236" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A236" s="10"/>
+      <c r="B236" s="3" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="5" t="s">
-        <v>617</v>
-      </c>
+      <c r="A237" s="5"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>755</v>
+        <v>620</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>626</v>
+        <v>754</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>622</v>
+        <v>590</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>588</v>
+        <v>617</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>762</v>
+        <v>587</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>628</v>
+        <v>761</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>625</v>
+        <v>586</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>719</v>
+        <v>624</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -4949,14 +4958,19 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B260" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="B259" s="4" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="9"/>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A5:B209">
@@ -4971,9 +4985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4993,247 +5007,247 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>707</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>709</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>763</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>711</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>748</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5241,10 +5255,10 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5315,7 +5329,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5328,7 +5342,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5350,17 +5364,17 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -5417,12 +5431,12 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -5435,7 +5449,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -5448,37 +5462,37 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -5491,10 +5505,10 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -5502,17 +5516,17 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -5520,10 +5534,10 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -5533,42 +5547,42 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -5578,12 +5592,12 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -5593,7 +5607,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -5626,7 +5640,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -5649,7 +5663,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -5662,7 +5676,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -5713,81 +5727,81 @@
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>740</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -5847,7 +5861,7 @@
     <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5905,18 +5919,18 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -5929,18 +5943,18 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -5949,7 +5963,7 @@
     <row r="47" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -5957,18 +5971,18 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6032,21 +6046,21 @@
     <row r="62" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -6055,21 +6069,21 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -6079,7 +6093,7 @@
     <row r="72" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -6088,10 +6102,10 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -6101,29 +6115,29 @@
     <row r="76" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>507</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6156,76 +6170,76 @@
     <row r="90" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>541</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -6234,7 +6248,7 @@
     <row r="105" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -6253,15 +6267,15 @@
     <row r="110" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6322,7 +6336,7 @@
     <row r="125" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -6330,18 +6344,18 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -6490,12 +6504,12 @@
     <row r="157" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -6531,142 +6545,142 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -6675,26 +6689,26 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>553</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -6733,173 +6747,173 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>683</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>687</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
